--- a/biology/Zoologie/Conus_stainforthii/Conus_stainforthii.xlsx
+++ b/biology/Zoologie/Conus_stainforthii/Conus_stainforthii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus stainforthii est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -514,10 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus stainforthii a été décrite pour la première fois en 1843 par l'éditeur et naturaliste britannique Lovell Augustus Reeve (1814-1865) dans « Conchologia Iconica, or, illustrations of the shells of molluscous animals »[1],[2].
-Synonymes
-Conus (Phasmoconus) stainforthii Reeve, 1843 · appellation alternative
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus stainforthii a été décrite pour la première fois en 1843 par l'éditeur et naturaliste britannique Lovell Augustus Reeve (1814-1865) dans « Conchologia Iconica, or, illustrations of the shells of molluscous animals »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Conus_stainforthii</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_stainforthii</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Conus (Phasmoconus) stainforthii Reeve, 1843 · appellation alternative
 Fulgiconus stainforthii (Reeve, 1843) · non accepté &gt; superseded combination</t>
         </is>
       </c>
